--- a/Analyzed/try8/data_2007.xlsx
+++ b/Analyzed/try8/data_2007.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>50.55</v>
       </c>
       <c r="J2">
-        <v>450.2</v>
+        <v>485.16667</v>
       </c>
       <c r="K2">
         <v>877.526</v>
       </c>
       <c r="L2">
-        <v>472.29</v>
+        <v>537.7855</v>
       </c>
       <c r="M2">
         <v>56.04348828398085</v>
@@ -558,49 +583,64 @@
         <v>-90.90000000000001</v>
       </c>
       <c r="P2">
-        <v>535.5350809037652</v>
+        <v>702.1643555952857</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
         <v>6</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
         <v>7</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
         <v>4</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AA2">
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>47.55</v>
       </c>
       <c r="J3">
-        <v>431.4</v>
+        <v>537.8665900000001</v>
       </c>
       <c r="K3">
         <v>1359.751</v>
       </c>
       <c r="L3">
-        <v>478.8</v>
+        <v>615.66715</v>
       </c>
       <c r="M3">
         <v>56.25010315440444</v>
@@ -652,49 +692,64 @@
         <v>-87.34999999999999</v>
       </c>
       <c r="P3">
-        <v>554.8748204833591</v>
+        <v>734.4860098513944</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
       <c r="Y3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>38.71</v>
       </c>
       <c r="J4">
-        <v>406.2</v>
+        <v>469.19261</v>
       </c>
       <c r="K4">
         <v>1859.598</v>
       </c>
       <c r="L4">
-        <v>366.24</v>
+        <v>436.4339</v>
       </c>
       <c r="M4">
         <v>57.30119547467994</v>
@@ -746,49 +801,64 @@
         <v>-90.63</v>
       </c>
       <c r="P4">
-        <v>476.3644121322459</v>
+        <v>627.9471355230303</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>4</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>39.23</v>
       </c>
       <c r="J5">
-        <v>418.6</v>
+        <v>539.49473</v>
       </c>
       <c r="K5">
         <v>973.2140000000001</v>
       </c>
       <c r="L5">
-        <v>406.35</v>
+        <v>488.32315</v>
       </c>
       <c r="M5">
         <v>56.16038170021862</v>
@@ -840,49 +910,64 @@
         <v>-71.26000000000001</v>
       </c>
       <c r="P5">
-        <v>439.6425831619512</v>
+        <v>574.5366161185906</v>
       </c>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD5">
         <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>36.32</v>
       </c>
       <c r="J6">
-        <v>417.4</v>
+        <v>497.00561</v>
       </c>
       <c r="K6">
         <v>781.135</v>
       </c>
       <c r="L6">
-        <v>459.27</v>
+        <v>612.0933</v>
       </c>
       <c r="M6">
         <v>56.3245048583132</v>
@@ -934,22 +1019,22 @@
         <v>-153.83</v>
       </c>
       <c r="P6">
-        <v>411.3674588463809</v>
+        <v>536.5288533675904</v>
       </c>
       <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>3</v>
@@ -958,10 +1043,10 @@
         <v>3</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>3</v>
@@ -970,12 +1055,27 @@
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>2</v>
       </c>
       <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
         <v>2</v>
       </c>
     </row>
@@ -1010,13 +1110,13 @@
         <v>33.78</v>
       </c>
       <c r="J7">
-        <v>413.6</v>
+        <v>510.29108</v>
       </c>
       <c r="K7">
         <v>1141.958</v>
       </c>
       <c r="L7">
-        <v>389.76</v>
+        <v>497.84595</v>
       </c>
       <c r="M7">
         <v>59.65501073253106</v>
@@ -1028,49 +1128,64 @@
         <v>-143.66</v>
       </c>
       <c r="P7">
-        <v>476.7648305018207</v>
+        <v>626.6716335136663</v>
       </c>
       <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>3</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>3</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>38.34999999999999</v>
       </c>
       <c r="J8">
-        <v>413.2</v>
+        <v>445.43726</v>
       </c>
       <c r="K8">
         <v>1073.637</v>
       </c>
       <c r="L8">
-        <v>403.62</v>
+        <v>443.80665</v>
       </c>
       <c r="M8">
         <v>69.24301329366352</v>
@@ -1122,49 +1237,64 @@
         <v>-89.3</v>
       </c>
       <c r="P8">
-        <v>404.4332648293827</v>
+        <v>529.9788039455461</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>6</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
         <v>4</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>4</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>25.74</v>
       </c>
       <c r="J9">
-        <v>385.6</v>
+        <v>343.42324</v>
       </c>
       <c r="K9">
         <v>1923.384</v>
       </c>
       <c r="L9">
-        <v>383.25</v>
+        <v>381.22455</v>
       </c>
       <c r="M9">
         <v>67.64127457330621</v>
@@ -1216,34 +1346,34 @@
         <v>-135.38</v>
       </c>
       <c r="P9">
-        <v>268.1191118756852</v>
+        <v>348.2863474208686</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>7</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>6</v>
       </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>2</v>
@@ -1252,12 +1382,27 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>0</v>
       </c>
     </row>
